--- a/docs/assembly/BOM/BOM.xlsx
+++ b/docs/assembly/BOM/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miha\OneDrive - IRNAS\Namizje\Boštjan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irnasdoo-my.sharepoint.com/personal/miha_irnas_eu/Documents/Namizje/Boštjan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0692703B-143D-4CDC-AD3B-857DE7A9E5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{0692703B-143D-4CDC-AD3B-857DE7A9E5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DD7E837-CCEB-42A2-AECE-040F773AA383}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6459A4F-710A-4D0F-B4DF-E1F9C859C3CB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t xml:space="preserve">BOM </t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>Screw for plastic 10x3mm countersunk</t>
+  </si>
+  <si>
+    <t>Peristaltic pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nema 34 stepper motor </t>
+  </si>
+  <si>
+    <t>Screw M4x16</t>
+  </si>
+  <si>
+    <t>Screw M6x20</t>
   </si>
 </sst>
 </file>
@@ -524,29 +536,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D4B7B0-6648-4190-89F1-7993722BE94F}">
-  <dimension ref="C3:L19"/>
+  <dimension ref="C3:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
@@ -555,22 +570,28 @@
         <v>9</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="L7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -583,17 +604,23 @@
       <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
@@ -606,15 +633,21 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
@@ -627,15 +660,21 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
@@ -648,17 +687,23 @@
       <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
@@ -671,17 +716,23 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
@@ -694,17 +745,23 @@
       <c r="G14" s="3">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
@@ -717,67 +774,85 @@
       <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="3">
         <v>6</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="I17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
